--- a/Python/统计建模/result.xlsx
+++ b/Python/统计建模/result.xlsx
@@ -611,13 +611,13 @@
         <v>0.02848230008893511</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5695798295939553</v>
+        <v>0.4304201704060447</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8922556281106881</v>
+        <v>0.1077443718893119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8604649486209539</v>
+        <v>0.1395350513790461</v>
       </c>
       <c r="V2" t="n">
         <v>0.4719468946586395</v>
@@ -685,13 +685,13 @@
         <v>1.865706308597775e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>1.680672212414379e-08</v>
+        <v>0.9999999831932778</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9326596413066386</v>
+        <v>0.0673403586933615</v>
       </c>
       <c r="U3" t="n">
-        <v>0.906976554894626</v>
+        <v>0.09302344510537393</v>
       </c>
       <c r="V3" t="n">
         <v>0.6277166497631784</v>
@@ -759,13 +759,13 @@
         <v>0.1406048392176667</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7053781443570371</v>
+        <v>0.2946218556429628</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9562286490042766</v>
+        <v>0.04377135099572349</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9999997674419686</v>
+        <v>2.325580313683573e-07</v>
       </c>
       <c r="V4" t="n">
         <v>0.7680276434154265</v>
@@ -833,13 +833,13 @@
         <v>0.4107372787583652</v>
       </c>
       <c r="S5" t="n">
-        <v>0.628235289807217</v>
+        <v>0.371764710192783</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9999996632998901</v>
+        <v>3.367001099662559e-07</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9767439643051326</v>
+        <v>0.02325603569486743</v>
       </c>
       <c r="V5" t="n">
         <v>0.9999999990906612</v>
@@ -907,13 +907,13 @@
         <v>0.4482121048048193</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6442016758251536</v>
+        <v>0.3557983241748463</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8080806006191242</v>
+        <v>0.1919193993808759</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8604649486209539</v>
+        <v>0.1395350513790461</v>
       </c>
       <c r="V6" t="n">
         <v>9.093389089581899e-10</v>
@@ -981,13 +981,13 @@
         <v>0.7200489589204835</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2808403435011648</v>
+        <v>0.7191596564988351</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7811445918218237</v>
+        <v>0.2188554081781764</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7674417360736113</v>
+        <v>0.2325582639263886</v>
       </c>
       <c r="V7" t="n">
         <v>0.1618623267038967</v>
@@ -1055,13 +1055,13 @@
         <v>0.8059832202945134</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2300840426862506</v>
+        <v>0.7699159573137493</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6666665544332967</v>
+        <v>0.3333334455667034</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6511627203894327</v>
+        <v>0.3488372796105672</v>
       </c>
       <c r="V8" t="n">
         <v>0.08111303158841011</v>
@@ -1129,13 +1129,13 @@
         <v>0.9999999813429369</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6601680618430903</v>
+        <v>0.3398319381569097</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3872054631613043</v>
+        <v>0.6127945368386957</v>
       </c>
       <c r="U9" t="n">
-        <v>0.534883704705254</v>
+        <v>0.4651162952947459</v>
       </c>
       <c r="V9" t="n">
         <v>0.6871874144090437</v>
@@ -1203,13 +1203,13 @@
         <v>0.4442585877605977</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9999999831932778</v>
+        <v>1.680672212414379e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2390574147761519</v>
+        <v>0.7609425852238482</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3953488858842393</v>
+        <v>0.6046511141157606</v>
       </c>
       <c r="V10" t="n">
         <v>0.5447849412661908</v>
@@ -1277,13 +1277,13 @@
         <v>0.4442585877605977</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8737815000409578</v>
+        <v>0.1262184999590421</v>
       </c>
       <c r="T11" t="n">
-        <v>3.367001099662559e-07</v>
+        <v>0.9999996632998901</v>
       </c>
       <c r="U11" t="n">
-        <v>2.325580313683573e-07</v>
+        <v>0.9999997674419686</v>
       </c>
       <c r="V11" t="n">
         <v>0.5741565880255397</v>
@@ -1351,13 +1351,13 @@
         <v>0.4442585877605977</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5592268887654827</v>
+        <v>0.4407731112345172</v>
       </c>
       <c r="T12" t="n">
-        <v>0.66632985432333</v>
+        <v>0.33367014567667</v>
       </c>
       <c r="U12" t="n">
-        <v>0.6953487463494233</v>
+        <v>0.3046512536505766</v>
       </c>
       <c r="V12" t="n">
         <v>0.4916795489830329</v>
@@ -1440,7 +1440,7 @@
         <v>0.1838076611449383</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5984776140470075</v>
+        <v>0.5515401383517309</v>
       </c>
     </row>
     <row r="3">
@@ -1463,7 +1463,7 @@
         <v>0.2936028177973867</v>
       </c>
       <c r="G3" t="n">
-        <v>0.572771781390362</v>
+        <v>0.5992456392249063</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1486,7 @@
         <v>0.1016362719673036</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8653789790884172</v>
+        <v>0.8844342876697898</v>
       </c>
     </row>
     <row r="5">
@@ -1509,7 +1509,7 @@
         <v>0.1210243663597058</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6201107109604032</v>
+        <v>0.5687106673390622</v>
       </c>
     </row>
     <row r="6">
@@ -1532,7 +1532,7 @@
         <v>0.1983793780619187</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3635198580309459</v>
+        <v>0.1909881836202462</v>
       </c>
     </row>
     <row r="7">
@@ -1555,7 +1555,7 @@
         <v>0.3098875732655564</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3146694968775102</v>
+        <v>0.156830994497861</v>
       </c>
     </row>
     <row r="8">
@@ -1578,7 +1578,7 @@
         <v>0.4016175477403703</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2465487933943339</v>
+        <v>0.06659059674344515</v>
       </c>
     </row>
     <row r="9">
@@ -1601,7 +1601,7 @@
         <v>0.5160674094928732</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4925874299467969</v>
+        <v>0.4826679653755342</v>
       </c>
     </row>
     <row r="10">
@@ -1624,7 +1624,7 @@
         <v>0.5822703698481053</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4937681179872619</v>
+        <v>0.4602278696109177</v>
       </c>
     </row>
     <row r="11">
@@ -1647,7 +1647,7 @@
         <v>0.7539564520833999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4484611042057995</v>
+        <v>0.4685648663925251</v>
       </c>
     </row>
     <row r="12">
@@ -1670,7 +1670,7 @@
         <v>0.335793077797316</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4947920868528207</v>
+        <v>0.4450800241733711</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1704,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2928646771790728</v>
+        <v>0.2932494330444446</v>
       </c>
     </row>
     <row r="3">
@@ -1712,7 +1712,7 @@
         <v>2015</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2072789850498579</v>
+        <v>0.2231041692917567</v>
       </c>
     </row>
     <row r="4">
@@ -1720,7 +1720,7 @@
         <v>2016</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2454069826775927</v>
+        <v>0.2379031087428798</v>
       </c>
     </row>
     <row r="5">
@@ -1728,7 +1728,7 @@
         <v>2017</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2284377931714185</v>
+        <v>0.2263702482945874</v>
       </c>
     </row>
     <row r="6">
@@ -1736,7 +1736,7 @@
         <v>2018</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2526372742883211</v>
+        <v>0.2508886286431582</v>
       </c>
     </row>
     <row r="7">
@@ -1744,7 +1744,7 @@
         <v>2019</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4041992323360903</v>
+        <v>0.4058846314104683</v>
       </c>
     </row>
     <row r="8">
@@ -1752,7 +1752,7 @@
         <v>2020</v>
       </c>
       <c r="B8" t="n">
-        <v>0.464781230800717</v>
+        <v>0.4675127181460014</v>
       </c>
     </row>
     <row r="9">
@@ -1760,7 +1760,7 @@
         <v>2021</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7192969754514378</v>
+        <v>0.7348373381282414</v>
       </c>
     </row>
     <row r="10">
@@ -1768,7 +1768,7 @@
         <v>2022</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7911733411411149</v>
+        <v>0.8083650148081293</v>
       </c>
     </row>
     <row r="11">
@@ -1776,7 +1776,7 @@
         <v>2023</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7274904375609875</v>
+        <v>0.7499312459325965</v>
       </c>
     </row>
     <row r="12">
@@ -1784,7 +1784,7 @@
         <v>2024</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5251613545965467</v>
+        <v>0.5292749858297918</v>
       </c>
     </row>
   </sheetData>
@@ -1833,13 +1833,13 @@
         <v>2014</v>
       </c>
       <c r="B2" t="n">
-        <v>0.571</v>
+        <v>0.578</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3072</v>
+        <v>0.2993</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4188</v>
+        <v>0.4159</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1852,13 +1852,13 @@
         <v>2015</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7587</v>
+        <v>0.7529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2881</v>
+        <v>0.2925</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4675</v>
+        <v>0.4693</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1871,13 +1871,13 @@
         <v>2016</v>
       </c>
       <c r="B4" t="n">
-        <v>0.752</v>
+        <v>0.7471</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3115</v>
+        <v>0.3147</v>
       </c>
       <c r="D4" t="n">
-        <v>0.484</v>
+        <v>0.4849</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1890,13 +1890,13 @@
         <v>2017</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8728</v>
+        <v>0.8831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3318</v>
+        <v>0.3233</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5382</v>
+        <v>0.5343</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1909,13 +1909,13 @@
         <v>2018</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9641999999999999</v>
+        <v>0.9448</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3451</v>
+        <v>0.3163</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5768</v>
+        <v>0.5467</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1928,13 +1928,13 @@
         <v>2019</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9733000000000001</v>
+        <v>0.9233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4283</v>
+        <v>0.402</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6457000000000001</v>
+        <v>0.6093</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1947,13 +1947,13 @@
         <v>2020</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9544</v>
+        <v>0.8199</v>
       </c>
       <c r="C8" t="n">
-        <v>0.468</v>
+        <v>0.438</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6683</v>
+        <v>0.5992</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1966,13 +1966,13 @@
         <v>2021</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9824000000000001</v>
+        <v>0.9816</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6403</v>
+        <v>0.6387</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7932</v>
+        <v>0.7917999999999999</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         <v>2022</v>
       </c>
       <c r="B10" t="n">
-        <v>0.983</v>
+        <v>0.9797</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6738</v>
+        <v>0.6682</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8138</v>
+        <v>0.8091</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2004,17 +2004,17 @@
         <v>2023</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9721</v>
+        <v>0.9742</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6575</v>
+        <v>0.6609</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7995</v>
+        <v>0.8024</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>基本协调</t>
+          <t>优质协调</t>
         </is>
       </c>
     </row>
@@ -2023,13 +2023,13 @@
         <v>2024</v>
       </c>
       <c r="B12" t="n">
-        <v>0.927</v>
+        <v>0.9256</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5154</v>
+        <v>0.5071</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6912</v>
+        <v>0.6851</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.1911</t>
+          <t>0.3064</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.2195</t>
+          <t>0.3521</t>
         </is>
       </c>
     </row>
@@ -2460,58 +2460,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.2129</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>碳排放</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>造林总面积(千公顷)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0.1389</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>碳排放</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>人均公园绿地面积(平方米/人)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.1313</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>碳排放</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>建成区绿地覆盖率</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0.1063</t>
+          <t>0.3415</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.2283</t>
+          <t>0.2295</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.1955</t>
+          <t>0.1965</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2527,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.1403</t>
+          <t>0.1410</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2539,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.1261</t>
+          <t>0.1268</t>
         </is>
       </c>
     </row>
@@ -2602,7 +2551,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.1873</t>
+          <t>0.1883</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2563,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.1225</t>
+          <t>0.1179</t>
         </is>
       </c>
     </row>
